--- a/lib/seed/users.xlsx
+++ b/lib/seed/users.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17280" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2691,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lib/seed/users.xlsx
+++ b/lib/seed/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="753">
   <si>
     <t>Spot</t>
   </si>
@@ -2250,6 +2250,42 @@
   </si>
   <si>
     <t>Last Name</t>
+  </si>
+  <si>
+    <t>Devadas</t>
+  </si>
+  <si>
+    <t>Roxas</t>
+  </si>
+  <si>
+    <t>roxas.1</t>
+  </si>
+  <si>
+    <t>roxas.1@fakeemail.com</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Acerbi</t>
+  </si>
+  <si>
+    <t>acerbi.1</t>
+  </si>
+  <si>
+    <t>acerbi.1@fakeemail.com</t>
+  </si>
+  <si>
+    <t>Doireann</t>
+  </si>
+  <si>
+    <t>Peacock</t>
+  </si>
+  <si>
+    <t>peacock.1</t>
+  </si>
+  <si>
+    <t>peacock.1@fakeemail.com</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2390,6 +2426,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2689,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4914,7 +4951,7 @@
         <v>87</v>
       </c>
       <c r="J67" s="12" t="str">
-        <f t="shared" ref="J67:J130" si="1">CONCATENATE(I67, "@fakeemail.com")</f>
+        <f t="shared" ref="J67:J133" si="1">CONCATENATE(I67, "@fakeemail.com")</f>
         <v>Petti.427@fakeemail.com</v>
       </c>
     </row>
@@ -6471,115 +6508,112 @@
     </row>
     <row r="115" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B115" s="3">
-        <v>1</v>
+        <v>268</v>
+      </c>
+      <c r="B115" s="6">
+        <v>16</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>502</v>
+        <v>741</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>503</v>
+        <v>742</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H115" t="s">
-        <v>256</v>
+        <v>743</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J115" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Mathisen.218@fakeemail.com</v>
+        <v>743</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B116" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>504</v>
+        <v>745</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>505</v>
+        <v>746</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H116" t="s">
+        <v>747</v>
+      </c>
+      <c r="H116" s="13" t="s">
         <v>247</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J116" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Garten.560@fakeemail.com</v>
+        <v>747</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B117" s="6">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>506</v>
+        <v>749</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>507</v>
+        <v>750</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H117" t="s">
+        <v>751</v>
+      </c>
+      <c r="H117" s="13" t="s">
         <v>247</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J117" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Tyree.611@fakeemail.com</v>
+        <v>751</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B118" s="6">
-        <v>4</v>
+      <c r="B118" s="3">
+        <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>16</v>
@@ -6588,17 +6622,17 @@
         <v>7</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H118" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J118" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Peppler.143@fakeemail.com</v>
+        <v>Mathisen.218@fakeemail.com</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -6606,13 +6640,13 @@
         <v>269</v>
       </c>
       <c r="B119" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>16</v>
@@ -6621,17 +6655,17 @@
         <v>7</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H119" t="s">
         <v>247</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J119" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Paulson.371@fakeemail.com</v>
+        <v>Garten.560@fakeemail.com</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -6639,13 +6673,13 @@
         <v>269</v>
       </c>
       <c r="B120" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>16</v>
@@ -6654,17 +6688,17 @@
         <v>7</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="H120" t="s">
         <v>247</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="J120" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Mercer.633@fakeemail.com</v>
+        <v>Tyree.611@fakeemail.com</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -6672,13 +6706,13 @@
         <v>269</v>
       </c>
       <c r="B121" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>16</v>
@@ -6687,17 +6721,17 @@
         <v>7</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H121" t="s">
         <v>247</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J121" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Lickteig.332@fakeemail.com</v>
+        <v>Peppler.143@fakeemail.com</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -6705,13 +6739,13 @@
         <v>269</v>
       </c>
       <c r="B122" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>16</v>
@@ -6720,17 +6754,17 @@
         <v>7</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H122" t="s">
         <v>247</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J122" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Haddon.17@fakeemail.com</v>
+        <v>Paulson.371@fakeemail.com</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -6738,13 +6772,13 @@
         <v>269</v>
       </c>
       <c r="B123" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>16</v>
@@ -6753,17 +6787,17 @@
         <v>7</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="H123" t="s">
         <v>247</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="J123" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Mauger.736@fakeemail.com</v>
+        <v>Mercer.633@fakeemail.com</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -6771,13 +6805,13 @@
         <v>269</v>
       </c>
       <c r="B124" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>16</v>
@@ -6786,17 +6820,17 @@
         <v>7</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H124" t="s">
         <v>247</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J124" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Berge.171@fakeemail.com</v>
+        <v>Lickteig.332@fakeemail.com</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -6804,13 +6838,13 @@
         <v>269</v>
       </c>
       <c r="B125" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>16</v>
@@ -6819,17 +6853,17 @@
         <v>7</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H125" t="s">
         <v>247</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J125" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Willcutt.973@fakeemail.com</v>
+        <v>Haddon.17@fakeemail.com</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -6837,13 +6871,13 @@
         <v>269</v>
       </c>
       <c r="B126" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>16</v>
@@ -6852,17 +6886,17 @@
         <v>7</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H126" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J126" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Gaver.489@fakeemail.com</v>
+        <v>Mauger.736@fakeemail.com</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -6870,13 +6904,13 @@
         <v>269</v>
       </c>
       <c r="B127" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>16</v>
@@ -6885,31 +6919,31 @@
         <v>7</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H127" t="s">
         <v>247</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J127" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Ruyle.883@fakeemail.com</v>
+        <v>Berge.171@fakeemail.com</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B128" s="8">
-        <v>14</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>527</v>
+      <c r="B128" s="6">
+        <v>11</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>521</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>16</v>
@@ -6918,31 +6952,31 @@
         <v>7</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H128" t="s">
         <v>247</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J128" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Heeter.44@fakeemail.com</v>
+        <v>Willcutt.973@fakeemail.com</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B129" s="3">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="B129" s="6">
+        <v>12</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>16</v>
@@ -6951,31 +6985,31 @@
         <v>7</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H129" t="s">
         <v>256</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J129" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Fitzwater.145@fakeemail.com</v>
+        <v>Gaver.489@fakeemail.com</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B130" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>16</v>
@@ -6984,31 +7018,31 @@
         <v>7</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H130" t="s">
         <v>247</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J130" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Aquilino.382@fakeemail.com</v>
+        <v>Ruyle.883@fakeemail.com</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B131" s="6">
-        <v>3</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>533</v>
+      <c r="A131" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B131" s="8">
+        <v>14</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>527</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>16</v>
@@ -7017,31 +7051,31 @@
         <v>7</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H131" t="s">
         <v>247</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J131" s="12" t="str">
-        <f t="shared" ref="J131:J194" si="2">CONCATENATE(I131, "@fakeemail.com")</f>
-        <v>Palomino.241@fakeemail.com</v>
+        <f t="shared" si="1"/>
+        <v>Heeter.44@fakeemail.com</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B132" s="6">
-        <v>4</v>
+      <c r="B132" s="3">
+        <v>1</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>16</v>
@@ -7050,17 +7084,17 @@
         <v>7</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H132" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J132" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Dunson.706@fakeemail.com</v>
+        <f t="shared" si="1"/>
+        <v>Fitzwater.145@fakeemail.com</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7068,13 +7102,13 @@
         <v>270</v>
       </c>
       <c r="B133" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>16</v>
@@ -7083,17 +7117,17 @@
         <v>7</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H133" t="s">
         <v>247</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J133" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Hager.952@fakeemail.com</v>
+        <f t="shared" si="1"/>
+        <v>Aquilino.382@fakeemail.com</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7101,13 +7135,13 @@
         <v>270</v>
       </c>
       <c r="B134" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>16</v>
@@ -7116,17 +7150,17 @@
         <v>7</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H134" t="s">
         <v>247</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J134" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Bussell.732@fakeemail.com</v>
+        <f t="shared" ref="J134:J197" si="2">CONCATENATE(I134, "@fakeemail.com")</f>
+        <v>Palomino.241@fakeemail.com</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7134,13 +7168,13 @@
         <v>270</v>
       </c>
       <c r="B135" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>382</v>
+        <v>535</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>16</v>
@@ -7149,17 +7183,17 @@
         <v>7</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H135" t="s">
         <v>247</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J135" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Reese.274@fakeemail.com</v>
+        <v>Dunson.706@fakeemail.com</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7167,13 +7201,13 @@
         <v>270</v>
       </c>
       <c r="B136" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>16</v>
@@ -7182,17 +7216,17 @@
         <v>7</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H136" t="s">
         <v>247</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J136" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Borjas.930@fakeemail.com</v>
+        <v>Hager.952@fakeemail.com</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7200,13 +7234,13 @@
         <v>270</v>
       </c>
       <c r="B137" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>16</v>
@@ -7215,17 +7249,17 @@
         <v>7</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H137" t="s">
         <v>247</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J137" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Cady.595@fakeemail.com</v>
+        <v>Bussell.732@fakeemail.com</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7233,13 +7267,13 @@
         <v>270</v>
       </c>
       <c r="B138" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>546</v>
+        <v>382</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>16</v>
@@ -7248,17 +7282,17 @@
         <v>7</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H138" t="s">
         <v>247</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J138" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Okada.299@fakeemail.com</v>
+        <v>Reese.274@fakeemail.com</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7266,13 +7300,13 @@
         <v>270</v>
       </c>
       <c r="B139" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>16</v>
@@ -7281,17 +7315,17 @@
         <v>7</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H139" t="s">
         <v>247</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J139" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Debow.528@fakeemail.com</v>
+        <v>Borjas.930@fakeemail.com</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7299,13 +7333,13 @@
         <v>270</v>
       </c>
       <c r="B140" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>16</v>
@@ -7314,17 +7348,17 @@
         <v>7</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H140" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J140" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Calderone.593@fakeemail.com</v>
+        <v>Cady.595@fakeemail.com</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7332,13 +7366,13 @@
         <v>270</v>
       </c>
       <c r="B141" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>16</v>
@@ -7347,31 +7381,31 @@
         <v>7</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H141" t="s">
         <v>247</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J141" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Berrier.471@fakeemail.com</v>
+        <v>Okada.299@fakeemail.com</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B142" s="8">
-        <v>14</v>
+      <c r="B142" s="6">
+        <v>11</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>16</v>
@@ -7380,130 +7414,130 @@
         <v>7</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H142" t="s">
         <v>247</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J142" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Parry.560@fakeemail.com</v>
+        <v>Debow.528@fakeemail.com</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B143" s="3">
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="B143" s="6">
+        <v>12</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H143" t="s">
         <v>256</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J143" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Tignor.161@fakeemail.com</v>
+        <v>Calderone.593@fakeemail.com</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B144" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H144" t="s">
         <v>247</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J144" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Cutsforth.174@fakeemail.com</v>
+        <v>Berrier.471@fakeemail.com</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B145" s="6">
-        <v>3</v>
+        <v>270</v>
+      </c>
+      <c r="B145" s="8">
+        <v>14</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>443</v>
+        <v>554</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H145" t="s">
         <v>247</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J145" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Cripe.236@fakeemail.com</v>
+        <v>Parry.560@fakeemail.com</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B146" s="6">
-        <v>4</v>
+      <c r="B146" s="3">
+        <v>1</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>12</v>
@@ -7512,17 +7546,17 @@
         <v>7</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H146" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J146" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Belmont.982@fakeemail.com</v>
+        <v>Tignor.161@fakeemail.com</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7530,13 +7564,13 @@
         <v>271</v>
       </c>
       <c r="B147" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>12</v>
@@ -7545,17 +7579,17 @@
         <v>7</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H147" t="s">
         <v>247</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J147" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Girard.502@fakeemail.com</v>
+        <v>Cutsforth.174@fakeemail.com</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7563,13 +7597,13 @@
         <v>271</v>
       </c>
       <c r="B148" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>565</v>
+        <v>443</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>12</v>
@@ -7578,17 +7612,17 @@
         <v>7</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H148" t="s">
         <v>247</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J148" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Vining.935@fakeemail.com</v>
+        <v>Cripe.236@fakeemail.com</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7596,13 +7630,13 @@
         <v>271</v>
       </c>
       <c r="B149" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>12</v>
@@ -7611,17 +7645,17 @@
         <v>7</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H149" t="s">
         <v>247</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J149" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Clever.468@fakeemail.com</v>
+        <v>Belmont.982@fakeemail.com</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7629,13 +7663,13 @@
         <v>271</v>
       </c>
       <c r="B150" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>12</v>
@@ -7644,17 +7678,17 @@
         <v>7</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H150" t="s">
         <v>247</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J150" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Dias.832@fakeemail.com</v>
+        <v>Girard.502@fakeemail.com</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7662,13 +7696,13 @@
         <v>271</v>
       </c>
       <c r="B151" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>12</v>
@@ -7677,17 +7711,17 @@
         <v>7</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H151" t="s">
         <v>247</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J151" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Drake.377@fakeemail.com</v>
+        <v>Vining.935@fakeemail.com</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7695,13 +7729,13 @@
         <v>271</v>
       </c>
       <c r="B152" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>12</v>
@@ -7710,17 +7744,17 @@
         <v>7</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H152" t="s">
         <v>247</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J152" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Lane.218@fakeemail.com</v>
+        <v>Clever.468@fakeemail.com</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7728,13 +7762,13 @@
         <v>271</v>
       </c>
       <c r="B153" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>12</v>
@@ -7743,17 +7777,17 @@
         <v>7</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H153" t="s">
         <v>247</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J153" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Gerry.184@fakeemail.com</v>
+        <v>Dias.832@fakeemail.com</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7761,13 +7795,13 @@
         <v>271</v>
       </c>
       <c r="B154" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>12</v>
@@ -7776,17 +7810,17 @@
         <v>7</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H154" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J154" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Younts.552@fakeemail.com</v>
+        <v>Drake.377@fakeemail.com</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7794,13 +7828,13 @@
         <v>271</v>
       </c>
       <c r="B155" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>12</v>
@@ -7809,31 +7843,31 @@
         <v>7</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H155" t="s">
         <v>247</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J155" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Mcmurtrie.820@fakeemail.com</v>
+        <v>Lane.218@fakeemail.com</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B156" s="8">
-        <v>14</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>581</v>
+      <c r="B156" s="6">
+        <v>11</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>12</v>
@@ -7842,130 +7876,130 @@
         <v>7</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H156" t="s">
         <v>247</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J156" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Dowless.286@fakeemail.com</v>
+        <v>Gerry.184@fakeemail.com</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B157" s="3">
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="B157" s="6">
+        <v>12</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H157" t="s">
         <v>256</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J157" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Scheffer.323@fakeemail.com</v>
+        <v>Younts.552@fakeemail.com</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B158" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H158" t="s">
         <v>247</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J158" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Rempel.454@fakeemail.com</v>
+        <v>Mcmurtrie.820@fakeemail.com</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B159" s="6">
-        <v>3</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>587</v>
+      <c r="A159" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B159" s="8">
+        <v>14</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>581</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H159" t="s">
         <v>247</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J159" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Lis.287@fakeemail.com</v>
+        <v>Dowless.286@fakeemail.com</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B160" s="6">
-        <v>4</v>
+      <c r="B160" s="3">
+        <v>1</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>10</v>
@@ -7974,17 +8008,17 @@
         <v>6</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H160" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="J160" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Marsch.502@fakeemail.com</v>
+        <v>Scheffer.323@fakeemail.com</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -7992,13 +8026,13 @@
         <v>272</v>
       </c>
       <c r="B161" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>10</v>
@@ -8007,17 +8041,17 @@
         <v>7</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H161" t="s">
         <v>247</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J161" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Lesperance.914@fakeemail.com</v>
+        <v>Rempel.454@fakeemail.com</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8025,32 +8059,32 @@
         <v>272</v>
       </c>
       <c r="B162" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H162" t="s">
         <v>247</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J162" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Gunning.855@fakeemail.com</v>
+        <v>Lis.287@fakeemail.com</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8058,32 +8092,32 @@
         <v>272</v>
       </c>
       <c r="B163" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="H163" t="s">
         <v>247</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="J163" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Cripps.973@fakeemail.com</v>
+        <v>Marsch.502@fakeemail.com</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8091,13 +8125,13 @@
         <v>272</v>
       </c>
       <c r="B164" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>10</v>
@@ -8106,17 +8140,17 @@
         <v>7</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H164" t="s">
         <v>247</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J164" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Younkin.677@fakeemail.com</v>
+        <v>Lesperance.914@fakeemail.com</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8124,32 +8158,32 @@
         <v>272</v>
       </c>
       <c r="B165" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H165" t="s">
         <v>247</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J165" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Braz.539@fakeemail.com</v>
+        <v>Gunning.855@fakeemail.com</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8157,32 +8191,32 @@
         <v>272</v>
       </c>
       <c r="B166" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>420</v>
+        <v>595</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H166" t="s">
         <v>247</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J166" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Zielinski.230@fakeemail.com</v>
+        <v>Cripps.973@fakeemail.com</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8190,32 +8224,32 @@
         <v>272</v>
       </c>
       <c r="B167" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H167" t="s">
         <v>247</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J167" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Junior.195@fakeemail.com</v>
+        <v>Younkin.677@fakeemail.com</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8223,13 +8257,13 @@
         <v>272</v>
       </c>
       <c r="B168" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>10</v>
@@ -8238,17 +8272,17 @@
         <v>7</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H168" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J168" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Veneziano.661@fakeemail.com</v>
+        <v>Braz.539@fakeemail.com</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8256,178 +8290,178 @@
         <v>272</v>
       </c>
       <c r="B169" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>606</v>
+        <v>420</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H169" t="s">
         <v>247</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J169" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Down.797@fakeemail.com</v>
+        <v>Zielinski.230@fakeemail.com</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B170" s="8">
-        <v>14</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>608</v>
+      <c r="B170" s="6">
+        <v>11</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F170" s="8" t="s">
-        <v>11</v>
+      <c r="F170" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H170" t="s">
         <v>247</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J170" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Ogle.891@fakeemail.com</v>
+        <v>Junior.195@fakeemail.com</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B171" s="3">
-        <v>1</v>
+        <v>272</v>
+      </c>
+      <c r="B171" s="6">
+        <v>12</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H171" t="s">
         <v>256</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J171" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Resnick.437@fakeemail.com</v>
+        <v>Veneziano.661@fakeemail.com</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B172" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H172" t="s">
         <v>247</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J172" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Tindell.641@fakeemail.com</v>
+        <v>Down.797@fakeemail.com</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B173" s="6">
-        <v>3</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>614</v>
+      <c r="A173" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B173" s="8">
+        <v>14</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>608</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H173" t="s">
         <v>247</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J173" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Woltz.563@fakeemail.com</v>
+        <v>Ogle.891@fakeemail.com</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B174" s="6">
-        <v>4</v>
+      <c r="B174" s="3">
+        <v>1</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>9</v>
@@ -8436,17 +8470,17 @@
         <v>7</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H174" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J174" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Borjas.78@fakeemail.com</v>
+        <v>Resnick.437@fakeemail.com</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8454,13 +8488,13 @@
         <v>273</v>
       </c>
       <c r="B175" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>9</v>
@@ -8469,17 +8503,17 @@
         <v>7</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H175" t="s">
         <v>247</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J175" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Esquer.919@fakeemail.com</v>
+        <v>Tindell.641@fakeemail.com</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8487,13 +8521,13 @@
         <v>273</v>
       </c>
       <c r="B176" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>9</v>
@@ -8502,17 +8536,17 @@
         <v>7</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H176" t="s">
         <v>247</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J176" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Zdenek.728@fakeemail.com</v>
+        <v>Woltz.563@fakeemail.com</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8520,32 +8554,32 @@
         <v>273</v>
       </c>
       <c r="B177" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>622</v>
+        <v>543</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H177" t="s">
         <v>247</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J177" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Astorga.32@fakeemail.com</v>
+        <v>Borjas.78@fakeemail.com</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8553,32 +8587,32 @@
         <v>273</v>
       </c>
       <c r="B178" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H178" t="s">
         <v>247</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J178" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Dollins.210@fakeemail.com</v>
+        <v>Esquer.919@fakeemail.com</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8586,32 +8620,32 @@
         <v>273</v>
       </c>
       <c r="B179" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H179" t="s">
         <v>247</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J179" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Standifer.77@fakeemail.com</v>
+        <v>Zdenek.728@fakeemail.com</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8619,13 +8653,13 @@
         <v>273</v>
       </c>
       <c r="B180" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>9</v>
@@ -8634,17 +8668,17 @@
         <v>6</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H180" t="s">
         <v>247</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J180" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Stoke.982@fakeemail.com</v>
+        <v>Astorga.32@fakeemail.com</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8652,13 +8686,13 @@
         <v>273</v>
       </c>
       <c r="B181" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>9</v>
@@ -8667,17 +8701,17 @@
         <v>6</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H181" t="s">
         <v>247</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J181" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Grief.860@fakeemail.com</v>
+        <v>Dollins.210@fakeemail.com</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8685,13 +8719,13 @@
         <v>273</v>
       </c>
       <c r="B182" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>9</v>
@@ -8700,17 +8734,17 @@
         <v>6</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H182" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J182" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Denis.806@fakeemail.com</v>
+        <v>Standifer.77@fakeemail.com</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8718,197 +8752,197 @@
         <v>273</v>
       </c>
       <c r="B183" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H183" t="s">
         <v>247</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J183" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Gamblin.788@fakeemail.com</v>
+        <v>Stoke.982@fakeemail.com</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B184" s="8">
-        <v>14</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="E184" s="8" t="s">
+      <c r="B184" s="6">
+        <v>11</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E184" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F184" s="8" t="s">
+      <c r="F184" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H184" t="s">
         <v>247</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J184" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Faddis.634@fakeemail.com</v>
+        <v>Grief.860@fakeemail.com</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B185" s="3">
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="B185" s="6">
+        <v>12</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H185" t="s">
         <v>256</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J185" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Binns.159@fakeemail.com</v>
+        <v>Denis.806@fakeemail.com</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B186" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H186" t="s">
         <v>247</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J186" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Hepfer.154@fakeemail.com</v>
+        <v>Gamblin.788@fakeemail.com</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B187" s="6">
-        <v>3</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>8</v>
+      <c r="A187" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B187" s="8">
+        <v>14</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H187" t="s">
         <v>247</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J187" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Slade.484@fakeemail.com</v>
+        <v>Faddis.634@fakeemail.com</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B188" s="6">
-        <v>4</v>
+      <c r="B188" s="3">
+        <v>1</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H188" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J188" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Papp.563@fakeemail.com</v>
+        <v>Binns.159@fakeemail.com</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8916,32 +8950,32 @@
         <v>274</v>
       </c>
       <c r="B189" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H189" t="s">
         <v>247</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J189" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Encinas.262@fakeemail.com</v>
+        <v>Hepfer.154@fakeemail.com</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8949,32 +8983,32 @@
         <v>274</v>
       </c>
       <c r="B190" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H190" t="s">
         <v>247</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J190" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Mcdonald.342@fakeemail.com</v>
+        <v>Slade.484@fakeemail.com</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -8982,32 +9016,32 @@
         <v>274</v>
       </c>
       <c r="B191" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H191" t="s">
         <v>247</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J191" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Benigno.116@fakeemail.com</v>
+        <v>Papp.563@fakeemail.com</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9015,32 +9049,32 @@
         <v>274</v>
       </c>
       <c r="B192" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H192" t="s">
         <v>247</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J192" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Brinkley.866@fakeemail.com</v>
+        <v>Encinas.262@fakeemail.com</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9048,32 +9082,32 @@
         <v>274</v>
       </c>
       <c r="B193" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H193" t="s">
         <v>247</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J193" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Certain.335@fakeemail.com</v>
+        <v>Mcdonald.342@fakeemail.com</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9081,32 +9115,32 @@
         <v>274</v>
       </c>
       <c r="B194" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H194" t="s">
         <v>247</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J194" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Cypher.353@fakeemail.com</v>
+        <v>Benigno.116@fakeemail.com</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9114,32 +9148,32 @@
         <v>274</v>
       </c>
       <c r="B195" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>304</v>
+        <v>651</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H195" t="s">
         <v>247</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J195" s="12" t="str">
-        <f t="shared" ref="J195:J235" si="3">CONCATENATE(I195, "@fakeemail.com")</f>
-        <v>Lautenschlage.917@fakeemail.com</v>
+        <f t="shared" si="2"/>
+        <v>Brinkley.866@fakeemail.com</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9147,32 +9181,32 @@
         <v>274</v>
       </c>
       <c r="B196" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H196" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J196" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Rushford.890@fakeemail.com</v>
+        <f t="shared" si="2"/>
+        <v>Certain.335@fakeemail.com</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9180,197 +9214,197 @@
         <v>274</v>
       </c>
       <c r="B197" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F197" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H197" t="s">
+        <v>247</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J197" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Cypher.353@fakeemail.com</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B198" s="6">
+        <v>11</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F198" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G197" s="4" t="s">
+      <c r="G198" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H198" t="s">
+        <v>247</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J198" s="12" t="str">
+        <f t="shared" ref="J198:J238" si="3">CONCATENATE(I198, "@fakeemail.com")</f>
+        <v>Lautenschlage.917@fakeemail.com</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B199" s="6">
+        <v>12</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H199" t="s">
+        <v>256</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J199" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Rushford.890@fakeemail.com</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B200" s="6">
+        <v>13</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H197" t="s">
-        <v>247</v>
-      </c>
-      <c r="I197" s="4" t="s">
+      <c r="H200" t="s">
+        <v>247</v>
+      </c>
+      <c r="I200" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="J197" s="12" t="str">
+      <c r="J200" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Delossantos.38@fakeemail.com</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
+    <row r="201" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B198" s="8">
+      <c r="B201" s="8">
         <v>14</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C201" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="D198" s="6" t="s">
+      <c r="D201" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E201" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F198" s="8" t="s">
+      <c r="F201" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G198" s="4" t="s">
+      <c r="G201" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H198" t="s">
-        <v>247</v>
-      </c>
-      <c r="I198" s="4" t="s">
+      <c r="H201" t="s">
+        <v>247</v>
+      </c>
+      <c r="I201" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J198" s="12" t="str">
+      <c r="J201" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Slee.951@fakeemail.com</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B199" s="3">
-        <v>1</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H199" t="s">
-        <v>256</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J199" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Moretti.365@fakeemail.com</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B200" s="6">
-        <v>2</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H200" t="s">
-        <v>247</v>
-      </c>
-      <c r="I200" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J200" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Alphin.603@fakeemail.com</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B201" s="6">
-        <v>3</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H201" t="s">
-        <v>247</v>
-      </c>
-      <c r="I201" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J201" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Rainer.108@fakeemail.com</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B202" s="6">
-        <v>4</v>
+      <c r="B202" s="3">
+        <v>1</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H202" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J202" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Breitenstein.677@fakeemail.com</v>
+        <v>Moretti.365@fakeemail.com</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9378,13 +9412,13 @@
         <v>275</v>
       </c>
       <c r="B203" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>3</v>
@@ -9393,17 +9427,17 @@
         <v>6</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="H203" t="s">
         <v>247</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="J203" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Coletta.344@fakeemail.com</v>
+        <v>Alphin.603@fakeemail.com</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9411,13 +9445,13 @@
         <v>275</v>
       </c>
       <c r="B204" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>3</v>
@@ -9426,17 +9460,17 @@
         <v>7</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H204" t="s">
         <v>247</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J204" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Hieber.798@fakeemail.com</v>
+        <v>Rainer.108@fakeemail.com</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9444,13 +9478,13 @@
         <v>275</v>
       </c>
       <c r="B205" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>3</v>
@@ -9459,17 +9493,17 @@
         <v>7</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H205" t="s">
         <v>247</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J205" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Closson.956@fakeemail.com</v>
+        <v>Breitenstein.677@fakeemail.com</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9477,13 +9511,13 @@
         <v>275</v>
       </c>
       <c r="B206" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>3</v>
@@ -9492,17 +9526,17 @@
         <v>6</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H206" t="s">
         <v>247</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J206" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Tully.114@fakeemail.com</v>
+        <v>Coletta.344@fakeemail.com</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9510,32 +9544,32 @@
         <v>275</v>
       </c>
       <c r="B207" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H207" t="s">
         <v>247</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J207" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Caywood.170@fakeemail.com</v>
+        <v>Hieber.798@fakeemail.com</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9543,13 +9577,13 @@
         <v>275</v>
       </c>
       <c r="B208" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>3</v>
@@ -9558,17 +9592,17 @@
         <v>7</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H208" t="s">
         <v>247</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J208" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Silsby.242@fakeemail.com</v>
+        <v>Closson.956@fakeemail.com</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9576,13 +9610,13 @@
         <v>275</v>
       </c>
       <c r="B209" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>3</v>
@@ -9591,17 +9625,17 @@
         <v>6</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H209" t="s">
         <v>247</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J209" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Tait.159@fakeemail.com</v>
+        <v>Tully.114@fakeemail.com</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9609,32 +9643,32 @@
         <v>275</v>
       </c>
       <c r="B210" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H210" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J210" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Aleman.73@fakeemail.com</v>
+        <v>Caywood.170@fakeemail.com</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9642,178 +9676,178 @@
         <v>275</v>
       </c>
       <c r="B211" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H211" t="s">
         <v>247</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J211" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Brindley.439@fakeemail.com</v>
+        <v>Silsby.242@fakeemail.com</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A212" s="7" t="s">
+      <c r="A212" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B212" s="8">
-        <v>14</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>690</v>
+      <c r="B212" s="6">
+        <v>11</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F212" s="8" t="s">
-        <v>7</v>
+      <c r="F212" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H212" t="s">
         <v>247</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J212" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Dicarlo.674@fakeemail.com</v>
+        <v>Tait.159@fakeemail.com</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B213" s="3">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="B213" s="6">
+        <v>12</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H213" t="s">
         <v>256</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J213" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Florez.613@fakeemail.com</v>
+        <v>Aleman.73@fakeemail.com</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B214" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H214" t="s">
         <v>247</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J214" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Sawyers.890@fakeemail.com</v>
+        <v>Brindley.439@fakeemail.com</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B215" s="6">
-        <v>3</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>696</v>
+      <c r="A215" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B215" s="8">
+        <v>14</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>690</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F215" s="6" t="s">
-        <v>5</v>
+      <c r="F215" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H215" t="s">
         <v>247</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J215" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Byrne.461@fakeemail.com</v>
+        <v>Dicarlo.674@fakeemail.com</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B216" s="6">
-        <v>4</v>
+      <c r="B216" s="3">
+        <v>1</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>3</v>
@@ -9822,17 +9856,17 @@
         <v>5</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H216" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J216" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Hagar.119@fakeemail.com</v>
+        <v>Florez.613@fakeemail.com</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9840,13 +9874,13 @@
         <v>276</v>
       </c>
       <c r="B217" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>3</v>
@@ -9855,17 +9889,17 @@
         <v>4</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H217" t="s">
         <v>247</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J217" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Goldie.250@fakeemail.com</v>
+        <v>Sawyers.890@fakeemail.com</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9873,32 +9907,32 @@
         <v>276</v>
       </c>
       <c r="B218" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H218" t="s">
         <v>247</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J218" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Monfort.301@fakeemail.com</v>
+        <v>Byrne.461@fakeemail.com</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9906,13 +9940,13 @@
         <v>276</v>
       </c>
       <c r="B219" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>3</v>
@@ -9921,17 +9955,17 @@
         <v>5</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H219" t="s">
         <v>247</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J219" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Toll.679@fakeemail.com</v>
+        <v>Hagar.119@fakeemail.com</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9939,13 +9973,13 @@
         <v>276</v>
       </c>
       <c r="B220" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>3</v>
@@ -9954,17 +9988,17 @@
         <v>4</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H220" t="s">
         <v>247</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J220" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Gammage.15@fakeemail.com</v>
+        <v>Goldie.250@fakeemail.com</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -9972,13 +10006,13 @@
         <v>276</v>
       </c>
       <c r="B221" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>3</v>
@@ -9986,18 +10020,18 @@
       <c r="F221" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G221" s="11" t="s">
-        <v>237</v>
+      <c r="G221" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="H221" t="s">
         <v>247</v>
       </c>
-      <c r="I221" s="11" t="s">
-        <v>237</v>
+      <c r="I221" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="J221" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Darnell.242@fakeemail.com</v>
+        <v>Monfort.301@fakeemail.com</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -10005,32 +10039,32 @@
         <v>276</v>
       </c>
       <c r="B222" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H222" t="s">
         <v>247</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J222" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Paro.334@fakeemail.com</v>
+        <v>Toll.679@fakeemail.com</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -10038,32 +10072,32 @@
         <v>276</v>
       </c>
       <c r="B223" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H223" t="s">
         <v>247</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J223" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Barwick.128@fakeemail.com</v>
+        <v>Gammage.15@fakeemail.com</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -10071,13 +10105,13 @@
         <v>276</v>
       </c>
       <c r="B224" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>3</v>
@@ -10085,18 +10119,18 @@
       <c r="F224" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G224" s="4" t="s">
-        <v>240</v>
+      <c r="G224" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="H224" t="s">
-        <v>256</v>
-      </c>
-      <c r="I224" s="4" t="s">
-        <v>240</v>
+        <v>247</v>
+      </c>
+      <c r="I224" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="J224" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Dugger.786@fakeemail.com</v>
+        <v>Darnell.242@fakeemail.com</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -10104,13 +10138,13 @@
         <v>276</v>
       </c>
       <c r="B225" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>3</v>
@@ -10119,291 +10153,390 @@
         <v>4</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H225" t="s">
         <v>247</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J225" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Leibowitz.835@fakeemail.com</v>
+        <v>Paro.334@fakeemail.com</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B226" s="8">
-        <v>14</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>718</v>
+      <c r="B226" s="6">
+        <v>11</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>712</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F226" s="8" t="s">
+      <c r="F226" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H226" t="s">
         <v>247</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J226" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Krebsbach.938@fakeemail.com</v>
+        <v>Barwick.128@fakeemail.com</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B227" s="6">
+        <v>12</v>
+      </c>
       <c r="C227" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="D227" t="s">
-        <v>721</v>
-      </c>
-      <c r="E227" t="s">
-        <v>248</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>248</v>
+        <v>714</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H227" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J227" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>tareshawty.3@fakeemail.com</v>
+        <v>Dugger.786@fakeemail.com</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B228" s="6">
+        <v>13</v>
+      </c>
       <c r="C228" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="D228" t="s">
-        <v>723</v>
-      </c>
-      <c r="E228" t="s">
+        <v>716</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E228" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F228" s="4" t="s">
-        <v>248</v>
+      <c r="F228" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H228" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J228" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>natale.1@fakeemail.com</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C229" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="D229" t="s">
-        <v>725</v>
-      </c>
-      <c r="E229" t="s">
+        <v>Leibowitz.835@fakeemail.com</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B229" s="8">
+        <v>14</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="E229" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G229" t="s">
-        <v>251</v>
+      <c r="G229" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="H229" t="s">
-        <v>250</v>
-      </c>
-      <c r="I229" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="J229" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Hendrikx.2@fakeemail.com</v>
+        <v>Krebsbach.938@fakeemail.com</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C230" s="6" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D230" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E230" t="s">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H230" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J230" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Raimondi.3@fakeemail.com</v>
+        <v>tareshawty.3@fakeemail.com</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C231" s="6" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D231" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E231" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>248</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H231" t="s">
         <v>250</v>
       </c>
-      <c r="I231" t="s">
-        <v>253</v>
+      <c r="I231" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="J231" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Abdullah.4@fakeemail.com</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>natale.1@fakeemail.com</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C232" s="6" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D232" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>254</v>
+        <v>3</v>
+      </c>
+      <c r="F232" t="s">
+        <v>5</v>
+      </c>
+      <c r="G232" t="s">
+        <v>251</v>
       </c>
       <c r="H232" t="s">
         <v>250</v>
       </c>
-      <c r="I232" s="4" t="s">
-        <v>254</v>
+      <c r="I232" t="s">
+        <v>251</v>
       </c>
       <c r="J232" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Couman.5@fakeemail.com</v>
+        <v>Hendrikx.2@fakeemail.com</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C233" s="6" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D233" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E233" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H233" t="s">
         <v>250</v>
       </c>
-      <c r="I233" t="s">
-        <v>257</v>
+      <c r="I233" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="J233" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Holmes.6@fakeemail.com</v>
+        <v>Raimondi.3@fakeemail.com</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C234" s="6" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D234" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E234" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>248</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H234" t="s">
         <v>250</v>
       </c>
-      <c r="I234" s="4" t="s">
-        <v>258</v>
+      <c r="I234" t="s">
+        <v>253</v>
       </c>
       <c r="J234" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>Chaikin.7@fakeemail.com</v>
+        <v>Abdullah.4@fakeemail.com</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C235" s="6" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D235" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E235" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>248</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H235" t="s">
         <v>250</v>
       </c>
-      <c r="I235" t="s">
+      <c r="I235" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J235" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Couman.5@fakeemail.com</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="C236" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D236" t="s">
+        <v>733</v>
+      </c>
+      <c r="E236" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H236" t="s">
+        <v>250</v>
+      </c>
+      <c r="I236" t="s">
+        <v>257</v>
+      </c>
+      <c r="J236" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Holmes.6@fakeemail.com</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="C237" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D237" t="s">
+        <v>735</v>
+      </c>
+      <c r="E237" t="s">
+        <v>255</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H237" t="s">
+        <v>250</v>
+      </c>
+      <c r="I237" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J237" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Chaikin.7@fakeemail.com</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="C238" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D238" t="s">
+        <v>737</v>
+      </c>
+      <c r="E238" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G238" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="J235" s="12" t="str">
+      <c r="H238" t="s">
+        <v>250</v>
+      </c>
+      <c r="I238" t="s">
+        <v>259</v>
+      </c>
+      <c r="J238" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Riber.8@fakeemail.com</v>
       </c>
@@ -10421,17 +10554,20 @@
     <hyperlink ref="J33" r:id="rId3" display="tareshawty.3@osu.edu"/>
     <hyperlink ref="J64" r:id="rId4" display="tareshawty.3@osu.edu"/>
     <hyperlink ref="J95" r:id="rId5" display="tareshawty.3@osu.edu"/>
-    <hyperlink ref="J126" r:id="rId6" display="tareshawty.3@osu.edu"/>
-    <hyperlink ref="J157" r:id="rId7" display="tareshawty.3@osu.edu"/>
-    <hyperlink ref="J188" r:id="rId8" display="tareshawty.3@osu.edu"/>
-    <hyperlink ref="J219" r:id="rId9" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J129" r:id="rId6" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J160" r:id="rId7" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J191" r:id="rId8" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J222" r:id="rId9" display="tareshawty.3@osu.edu"/>
     <hyperlink ref="J34:J63" r:id="rId10" display="tareshawty.3@osu.edu"/>
     <hyperlink ref="J65:J94" r:id="rId11" display="tareshawty.3@osu.edu"/>
-    <hyperlink ref="J96:J125" r:id="rId12" display="tareshawty.3@osu.edu"/>
-    <hyperlink ref="J127:J156" r:id="rId13" display="tareshawty.3@osu.edu"/>
-    <hyperlink ref="J158:J187" r:id="rId14" display="tareshawty.3@osu.edu"/>
-    <hyperlink ref="J189:J218" r:id="rId15" display="tareshawty.3@osu.edu"/>
-    <hyperlink ref="J220:J235" r:id="rId16" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J96:J128" r:id="rId12" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J130:J159" r:id="rId13" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J161:J190" r:id="rId14" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J192:J221" r:id="rId15" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J223:J238" r:id="rId16" display="tareshawty.3@osu.edu"/>
+    <hyperlink ref="J115" r:id="rId17"/>
+    <hyperlink ref="J116" r:id="rId18"/>
+    <hyperlink ref="J117" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lib/seed/users.xlsx
+++ b/lib/seed/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="754">
   <si>
     <t>Spot</t>
   </si>
@@ -2286,6 +2286,9 @@
   </si>
   <si>
     <t>peacock.1@fakeemail.com</t>
+  </si>
+  <si>
+    <t>Thompson-smith.1234</t>
   </si>
 </sst>
 </file>
@@ -2728,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="J117" sqref="J117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2929,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>753</v>
       </c>
       <c r="H6" t="s">
         <v>247</v>
